--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D78B427-4B3A-4971-9EA5-F4B07CD2D56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA83A0-76F3-4CE0-B43B-DEBAC283AB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{425AF89E-221D-4F53-9CE8-E38D48E48B39}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6">
-        <v>768</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6">
-        <v>710</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="6">
-        <v>3941</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -681,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>4247</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="6">
-        <v>3572</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="6">
-        <v>9851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="6">
-        <v>3167</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="6">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="6">
-        <v>1319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="6">
-        <v>3517</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
